--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H2">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I2">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J2">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>357.6812706741645</v>
+        <v>434.499188926816</v>
       </c>
       <c r="R2">
-        <v>357.6812706741645</v>
+        <v>3910.492700341344</v>
       </c>
       <c r="S2">
-        <v>0.0152636139108566</v>
+        <v>0.01684405609916819</v>
       </c>
       <c r="T2">
-        <v>0.0152636139108566</v>
+        <v>0.0168440560991682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H3">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I3">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J3">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>12724.72619657353</v>
+        <v>13005.01840490584</v>
       </c>
       <c r="R3">
-        <v>12724.72619657353</v>
+        <v>117045.1656441525</v>
       </c>
       <c r="S3">
-        <v>0.5430122394157838</v>
+        <v>0.5041603417580723</v>
       </c>
       <c r="T3">
-        <v>0.5430122394157838</v>
+        <v>0.5041603417580724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H4">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I4">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J4">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>4631.161300058003</v>
+        <v>5554.260528075653</v>
       </c>
       <c r="R4">
-        <v>4631.161300058003</v>
+        <v>49988.34475268089</v>
       </c>
       <c r="S4">
-        <v>0.1976291850835564</v>
+        <v>0.2153197941643565</v>
       </c>
       <c r="T4">
-        <v>0.1976291850835564</v>
+        <v>0.2153197941643566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H5">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I5">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J5">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>1467.100274864706</v>
+        <v>1785.758407676117</v>
       </c>
       <c r="R5">
-        <v>1467.100274864706</v>
+        <v>16071.82566908506</v>
       </c>
       <c r="S5">
-        <v>0.06260672280055156</v>
+        <v>0.06922778123648961</v>
       </c>
       <c r="T5">
-        <v>0.06260672280055156</v>
+        <v>0.06922778123648964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H6">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I6">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J6">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>65.69149160166985</v>
+        <v>0.2578468509626666</v>
       </c>
       <c r="R6">
-        <v>65.69149160166985</v>
+        <v>2.320621658664</v>
       </c>
       <c r="S6">
-        <v>0.002803304638082612</v>
+        <v>9.995845638599232E-06</v>
       </c>
       <c r="T6">
-        <v>0.002803304638082612</v>
+        <v>9.995845638599233E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H7">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I7">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J7">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>2337.014299071982</v>
+        <v>7.717627852652445</v>
       </c>
       <c r="R7">
-        <v>2337.014299071982</v>
+        <v>69.458650673872</v>
       </c>
       <c r="S7">
-        <v>0.09972924748883827</v>
+        <v>0.00029918618910121</v>
       </c>
       <c r="T7">
-        <v>0.09972924748883827</v>
+        <v>0.0002991861891012101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H8">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I8">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J8">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>850.555840050904</v>
+        <v>3.296090356642222</v>
       </c>
       <c r="R8">
-        <v>850.555840050904</v>
+        <v>29.66481320978</v>
       </c>
       <c r="S8">
-        <v>0.03629643768512545</v>
+        <v>0.0001277782152190857</v>
       </c>
       <c r="T8">
-        <v>0.03629643768512545</v>
+        <v>0.0001277782152190858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H9">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I9">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J9">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>269.4466087179545</v>
+        <v>1.059730820526222</v>
       </c>
       <c r="R9">
-        <v>269.4466087179545</v>
+        <v>9.537577384736</v>
       </c>
       <c r="S9">
-        <v>0.01149830685098147</v>
+        <v>4.10821604409664E-05</v>
       </c>
       <c r="T9">
-        <v>0.01149830685098147</v>
+        <v>4.108216044096641E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.9962249078425</v>
+        <v>10.73549533333333</v>
       </c>
       <c r="H10">
-        <v>1.9962249078425</v>
+        <v>32.206486</v>
       </c>
       <c r="I10">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063174</v>
       </c>
       <c r="J10">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063175</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>13.61701310024557</v>
+        <v>87.29282466124133</v>
       </c>
       <c r="R10">
-        <v>13.61701310024557</v>
+        <v>785.6354219511719</v>
       </c>
       <c r="S10">
-        <v>0.0005810894995689177</v>
+        <v>0.003384045984712895</v>
       </c>
       <c r="T10">
-        <v>0.0005810894995689177</v>
+        <v>0.003384045984712897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.9962249078425</v>
+        <v>10.73549533333333</v>
       </c>
       <c r="H11">
-        <v>1.9962249078425</v>
+        <v>32.206486</v>
       </c>
       <c r="I11">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063174</v>
       </c>
       <c r="J11">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063175</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>484.4334258519938</v>
+        <v>2612.766192129473</v>
       </c>
       <c r="R11">
-        <v>484.4334258519938</v>
+        <v>23514.89572916526</v>
       </c>
       <c r="S11">
-        <v>0.02067260822402491</v>
+        <v>0.1012880609120114</v>
       </c>
       <c r="T11">
-        <v>0.02067260822402491</v>
+        <v>0.1012880609120115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.9962249078425</v>
+        <v>10.73549533333333</v>
       </c>
       <c r="H12">
-        <v>1.9962249078425</v>
+        <v>32.206486</v>
       </c>
       <c r="I12">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063174</v>
       </c>
       <c r="J12">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063175</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>176.3094387731809</v>
+        <v>1115.875708761854</v>
       </c>
       <c r="R12">
-        <v>176.3094387731809</v>
+        <v>10042.88137885669</v>
       </c>
       <c r="S12">
-        <v>0.007523791215574052</v>
+        <v>0.04325870684478905</v>
       </c>
       <c r="T12">
-        <v>0.007523791215574052</v>
+        <v>0.04325870684478907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.73549533333333</v>
+      </c>
+      <c r="H13">
+        <v>32.206486</v>
+      </c>
+      <c r="I13">
+        <v>0.1618389837063174</v>
+      </c>
+      <c r="J13">
+        <v>0.1618389837063175</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N13">
+        <v>100.256248</v>
+      </c>
+      <c r="O13">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P13">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q13">
+        <v>358.7668275138364</v>
+      </c>
+      <c r="R13">
+        <v>3228.901447624528</v>
+      </c>
+      <c r="S13">
+        <v>0.01390816996480404</v>
+      </c>
+      <c r="T13">
+        <v>0.01390816996480405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.394174</v>
+      </c>
+      <c r="I14">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J14">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.131233999999999</v>
+      </c>
+      <c r="N14">
+        <v>24.393702</v>
+      </c>
+      <c r="O14">
+        <v>0.02090995573015822</v>
+      </c>
+      <c r="P14">
+        <v>0.02090995573015823</v>
+      </c>
+      <c r="Q14">
+        <v>17.33084167690533</v>
+      </c>
+      <c r="R14">
+        <v>155.977575092148</v>
+      </c>
+      <c r="S14">
+        <v>0.0006718578006385296</v>
+      </c>
+      <c r="T14">
+        <v>0.0006718578006385299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.394174</v>
+      </c>
+      <c r="I15">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J15">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N15">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O15">
+        <v>0.625857000534647</v>
+      </c>
+      <c r="P15">
+        <v>0.6258570005346471</v>
+      </c>
+      <c r="Q15">
+        <v>518.7303468560116</v>
+      </c>
+      <c r="R15">
+        <v>4668.573121704104</v>
+      </c>
+      <c r="S15">
+        <v>0.02010941167546189</v>
+      </c>
+      <c r="T15">
+        <v>0.0201094116754619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.9962249078425</v>
-      </c>
-      <c r="H13">
-        <v>1.9962249078425</v>
-      </c>
-      <c r="I13">
-        <v>0.03116094212622382</v>
-      </c>
-      <c r="J13">
-        <v>0.03116094212622382</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>27.979244526923</v>
-      </c>
-      <c r="N13">
-        <v>27.979244526923</v>
-      </c>
-      <c r="O13">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="P13">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="Q13">
-        <v>55.85286482725964</v>
-      </c>
-      <c r="R13">
-        <v>55.85286482725964</v>
-      </c>
-      <c r="S13">
-        <v>0.002383453187055934</v>
-      </c>
-      <c r="T13">
-        <v>0.002383453187055934</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.394174</v>
+      </c>
+      <c r="I16">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J16">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>103.9426383333333</v>
+      </c>
+      <c r="N16">
+        <v>311.827915</v>
+      </c>
+      <c r="O16">
+        <v>0.2672947262403034</v>
+      </c>
+      <c r="P16">
+        <v>0.2672947262403035</v>
+      </c>
+      <c r="Q16">
+        <v>221.5424385074678</v>
+      </c>
+      <c r="R16">
+        <v>1993.88194656721</v>
+      </c>
+      <c r="S16">
+        <v>0.00858844701593872</v>
+      </c>
+      <c r="T16">
+        <v>0.008588447015938723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.394174</v>
+      </c>
+      <c r="I17">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J17">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N17">
+        <v>100.256248</v>
+      </c>
+      <c r="O17">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P17">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q17">
+        <v>71.22843269990577</v>
+      </c>
+      <c r="R17">
+        <v>641.055894299152</v>
+      </c>
+      <c r="S17">
+        <v>0.002761284133156623</v>
+      </c>
+      <c r="T17">
+        <v>0.002761284133156624</v>
       </c>
     </row>
   </sheetData>
